--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipF\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="510">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1442,12 +1442,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Average Cost ($/MW-yr)</t>
   </si>
   <si>
@@ -1487,9 +1481,6 @@
     <t>share</t>
   </si>
   <si>
-    <t>cost ($/MW-yr)</t>
-  </si>
-  <si>
     <t>Utilities pay to procure DR services.  They often pay energy service companies (ESCOs),</t>
   </si>
   <si>
@@ -1509,12 +1500,6 @@
   </si>
   <si>
     <t>taken by ESCOs and assign all of the cash flows from utilities to the ultimate DR providers</t>
-  </si>
-  <si>
-    <t>(the "industry" or "consumers" cash flow entities in the EPS).</t>
-  </si>
-  <si>
-    <t>In the EPS, the "industry" cash flow entity encompasses both industrial facilities and</t>
   </si>
   <si>
     <t>commercial buildings, so we calculate accordingly in this spreadsheet.</t>
@@ -1537,6 +1522,42 @@
   <si>
     <t>demand shifting they called upon.</t>
   </si>
+  <si>
+    <t>In the EPS, the "nonenergy industries" cash flow entity encompasses both industrial facilities and</t>
+  </si>
+  <si>
+    <t>(the "nonenergy industries" or "consumers" cash flow entities in the EPS).</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
+  </si>
+  <si>
+    <t>Cost ($/MW)</t>
+  </si>
+  <si>
+    <t>% of DR (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +1566,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2175,7 +2196,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2256,6 +2277,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2313,7 +2338,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2639,7 +2663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2648,12 +2674,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2691,82 +2717,82 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2812,10 @@
   <dimension ref="A1:AM430"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,109 +2846,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="47" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="40"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="42"/>
       <c r="AM1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="35" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="35" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="41" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="38" t="s">
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="46"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="48"/>
       <c r="AM2" s="2" t="s">
         <v>11</v>
       </c>
@@ -55591,7 +55617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55603,18 +55631,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="30">
         <f>SUMPRODUCT('Demand Response_States'!E4:E430,'Demand Response_States'!S4:S430)/SUM('Demand Response_States'!S4:S430)</f>
@@ -55627,7 +55655,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B3" s="30">
         <f>SUMPRODUCT('Demand Response_States'!F4:F430,'Demand Response_States'!T4:T430)/SUM('Demand Response_States'!T4:T430)</f>
@@ -55640,7 +55668,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B4" s="30">
         <f>SUMPRODUCT('Demand Response_States'!G4:G430,'Demand Response_States'!U4:U430)/SUM('Demand Response_States'!U4:U430)</f>
@@ -55653,22 +55681,22 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" s="30">
         <f>B2</f>
@@ -55681,7 +55709,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" s="30">
         <f>(B3*C3+B4*C4)/SUM(C3:C4)</f>
@@ -55702,19 +55730,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
-        <v>486</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -55728,7 +55756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="B3" s="30">
         <f>Calculations!B11</f>
@@ -55737,11 +55765,64 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B4" s="30">
         <f>Calculations!B10</f>
         <v>52676.668282897401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="30">
+        <f>B$3</f>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="30">
+        <f t="shared" ref="B7:B10" si="0">B$3</f>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="30">
+        <f t="shared" si="0"/>
+        <v>33800.754574311381</v>
       </c>
     </row>
   </sheetData>
@@ -55754,18 +55835,23 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>509</v>
+      </c>
       <c r="B1" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -55778,20 +55864,68 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="51">
+        <v>500</v>
+      </c>
+      <c r="B3" s="32">
         <f>Calculations!C11</f>
         <v>0.70681798569762366</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B4" s="51">
+        <v>501</v>
+      </c>
+      <c r="B4" s="32">
         <f>Calculations!C10</f>
         <v>0.29279230377378984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -56052,13 +56186,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFC649E5-8599-4482-9721-BA41CAFAEEA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEF772C-6DE4-46BC-8F99-39094D786E6B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F6A79A-4C5E-43B5-B601-9A8AA8A94A94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDE80C7-71E8-4982-A85C-6179F01243D9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BFCA43-210A-4EAA-AF49-18F2B282E757}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA6450-1EBD-4F4E-B6E5-374E56F49C35}"/>
 </file>